--- a/microservices/ingredient_service/data/ingredients.xlsx
+++ b/microservices/ingredient_service/data/ingredients.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>

--- a/microservices/ingredient_service/data/ingredients.xlsx
+++ b/microservices/ingredient_service/data/ingredients.xlsx
@@ -463,11 +463,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Đường</t>
+          <t>muối</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -476,23 +476,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-2-2</t>
+          <t>2024-2-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2026-2-3</t>
+          <t>2024-2-8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>muối</t>
+          <t>gạo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -501,23 +501,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-2-2</t>
+          <t>2025-2-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-2-8</t>
+          <t>2026-2-6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gạo</t>
+          <t>phô mai</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -526,12 +526,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-2-4</t>
+          <t>2025-2-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2026-2-6</t>
+          <t>2027-2-2</t>
         </is>
       </c>
     </row>

--- a/microservices/ingredient_service/data/ingredients.xlsx
+++ b/microservices/ingredient_service/data/ingredients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -532,6 +532,31 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>2027-2-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>đường</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-28-4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2026-2-2</t>
         </is>
       </c>
     </row>

--- a/microservices/ingredient_service/data/ingredients.xlsx
+++ b/microservices/ingredient_service/data/ingredients.xlsx
@@ -463,11 +463,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>muối</t>
+          <t>gạo</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -476,23 +476,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-2-2</t>
+          <t>2025-2-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-2-8</t>
+          <t>2026-2-6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gạo</t>
+          <t>phô mai</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -501,23 +501,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-2-4</t>
+          <t>2025-2-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2026-2-6</t>
+          <t>2027-2-2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>phô mai</t>
+          <t>đường</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6000000000000001</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -526,23 +526,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-2-2</t>
+          <t>2025-28-4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2027-2-2</t>
+          <t>2026-2-2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>đường</t>
+          <t>muối</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -551,12 +551,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-28-4</t>
+          <t>2024-2-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2026-2-2</t>
+          <t>2222-2-2</t>
         </is>
       </c>
     </row>
